--- a/excel_docs/Новый сводный отчет-1.xlsx
+++ b/excel_docs/Новый сводный отчет-1.xlsx
@@ -7385,7 +7385,7 @@
   <dimension ref="A1:AO408"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="AI397" activeCell="AI397"/>
+      <selection sqref="A2" activeCell="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" customHeight="true" defaultRowHeight="15"/>
